--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1210059.249298604</v>
+        <v>1254144.224585478</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004884</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.857558489</v>
+        <v>612367.9462114754</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7254582.531024822</v>
+        <v>7760230.747010142</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>236.4192825513669</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>154.6054260348455</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -826,16 +828,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>93.25032264295928</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>63.12615032060577</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,16 +873,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>136.4856185553948</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>271.8889620252601</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1066,13 +1068,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>10.35273376234569</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>218.0080577057887</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,16 +1138,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -1184,7 +1186,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>168.5351057930825</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -1193,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>160.962541995739</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>7.602798843930202</v>
@@ -1291,13 +1293,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>23.63676531339606</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -1309,7 +1311,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
@@ -1345,13 +1347,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>194.6908647867067</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1367,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -1430,13 +1432,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>211.0502009293567</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1528,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>168.7354543150334</v>
       </c>
       <c r="D13" t="n">
-        <v>49.28603944895304</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1588,13 +1590,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1609,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1616,7 +1618,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
@@ -1625,7 +1627,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,22 +1660,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>267.7362282880707</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1765,10 +1767,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>41.22670158250774</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1780,10 +1782,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
@@ -1819,16 +1821,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>218.008057705788</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1901,7 +1903,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>353.9145207250137</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
@@ -2002,7 +2004,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>154.8341616671932</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -2020,7 +2022,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,22 +2055,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>186.810132212935</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429721</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>70.99459090292609</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271523</v>
       </c>
     </row>
     <row r="23">
@@ -2479,19 +2481,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>45.22125567436197</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2533,13 +2535,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>7.441938898131673</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2956,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
-        <v>174.513495091677</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3187,19 +3189,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>98.15366458399268</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -3253,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>119.6396103681154</v>
       </c>
     </row>
     <row r="35">
@@ -3424,19 +3426,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>147.8541881549511</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>192.0704623194527</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3557,7 +3559,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095521</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -3664,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>172.804035614548</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>7.39162569803871</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3752,13 +3754,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
@@ -3800,13 +3802,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>20.51103233247981</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3898,10 +3900,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -3910,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>103.8603782851908</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.02059770683793</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -3952,7 +3954,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3964,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3977,25 +3979,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
@@ -4040,10 +4042,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>263.1056569420981</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4138,10 +4140,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>103.0767555432956</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>164.5461237886719</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
@@ -4153,7 +4155,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4192,16 +4194,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>121.8170956905235</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2043.959734409802</v>
+        <v>159.0305212218191</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.059004423102</v>
+        <v>136.1701952755233</v>
       </c>
       <c r="D2" t="n">
-        <v>1193.766383608102</v>
+        <v>116.9179785009276</v>
       </c>
       <c r="E2" t="n">
-        <v>1171.829847796364</v>
+        <v>94.98144268918922</v>
       </c>
       <c r="F2" t="n">
-        <v>746.7056659857641</v>
+        <v>73.89766491899353</v>
       </c>
       <c r="G2" t="n">
-        <v>342.3666035752127</v>
+        <v>73.59900654884622</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>73.59900654884622</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J2" t="n">
-        <v>407.101683866143</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K2" t="n">
-        <v>957.7672188505812</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="L2" t="n">
-        <v>957.7672188505812</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="M2" t="n">
-        <v>957.7672188505812</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="N2" t="n">
-        <v>957.7672188505812</v>
+        <v>403.5871017449294</v>
       </c>
       <c r="O2" t="n">
-        <v>1100.603903091853</v>
+        <v>882.5260259873576</v>
       </c>
       <c r="P2" t="n">
-        <v>1651.269438076291</v>
+        <v>1361.464950229786</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>1817.550429733969</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462377</v>
+        <v>1830.739470489012</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462377</v>
+        <v>1830.739470489012</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462377</v>
+        <v>1572.384561085424</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.911252462377</v>
+        <v>1214.895146211673</v>
       </c>
       <c r="W2" t="n">
-        <v>2068.744155457482</v>
+        <v>1214.895146211673</v>
       </c>
       <c r="X2" t="n">
-        <v>2061.064560665634</v>
+        <v>803.1751473794207</v>
       </c>
       <c r="Y2" t="n">
-        <v>2059.767694660928</v>
+        <v>397.837877334311</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>983.3471129133217</v>
+        <v>693.5426250668166</v>
       </c>
       <c r="C3" t="n">
-        <v>865.8412094308264</v>
+        <v>576.0367215843214</v>
       </c>
       <c r="D3" t="n">
-        <v>762.0012509461114</v>
+        <v>472.1967630996064</v>
       </c>
       <c r="E3" t="n">
-        <v>657.2993172190487</v>
+        <v>367.4948293725436</v>
       </c>
       <c r="F3" t="n">
-        <v>563.6534869019529</v>
+        <v>273.8489990554478</v>
       </c>
       <c r="G3" t="n">
-        <v>469.5997151195569</v>
+        <v>179.7952272730518</v>
       </c>
       <c r="H3" t="n">
-        <v>416.2236218818665</v>
+        <v>126.4191340353614</v>
       </c>
       <c r="I3" t="n">
-        <v>416.2236218818665</v>
+        <v>126.4191340353614</v>
       </c>
       <c r="J3" t="n">
-        <v>687.9211111614576</v>
+        <v>398.1166233149524</v>
       </c>
       <c r="K3" t="n">
-        <v>1123.5801824935</v>
+        <v>877.0555475573806</v>
       </c>
       <c r="L3" t="n">
-        <v>1674.245717477938</v>
+        <v>1355.994471799809</v>
       </c>
       <c r="M3" t="n">
-        <v>2224.911252462377</v>
+        <v>1834.933396042237</v>
       </c>
       <c r="N3" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="O3" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="P3" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="Q3" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R3" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S3" t="n">
-        <v>2143.587005023631</v>
+        <v>1853.782517177126</v>
       </c>
       <c r="T3" t="n">
-        <v>2001.707069321309</v>
+        <v>1711.902581474804</v>
       </c>
       <c r="U3" t="n">
-        <v>1816.938873240946</v>
+        <v>1527.134385394441</v>
       </c>
       <c r="V3" t="n">
-        <v>1611.965734380212</v>
+        <v>1322.161246533707</v>
       </c>
       <c r="W3" t="n">
-        <v>1415.444357213429</v>
+        <v>1125.639869366924</v>
       </c>
       <c r="X3" t="n">
-        <v>1251.967010980092</v>
+        <v>962.162523133587</v>
       </c>
       <c r="Y3" t="n">
-        <v>1112.274122333384</v>
+        <v>822.4696344868794</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1047.646867284271</v>
+        <v>628.6763288123593</v>
       </c>
       <c r="C4" t="n">
-        <v>875.6743041631869</v>
+        <v>628.6763288123593</v>
       </c>
       <c r="D4" t="n">
-        <v>712.3575312899576</v>
+        <v>465.35955593913</v>
       </c>
       <c r="E4" t="n">
-        <v>546.1493254428111</v>
+        <v>299.1513500919835</v>
       </c>
       <c r="F4" t="n">
-        <v>374.2875512173715</v>
+        <v>204.9591049980853</v>
       </c>
       <c r="G4" t="n">
-        <v>208.0305815116037</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>38.71266663273758</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>38.71266663273758</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>393.4019879271584</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>784.5877828974092</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1162.079293773445</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1517.507422453208</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>1808.106634375109</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S4" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T4" t="n">
-        <v>1981.571904688276</v>
+        <v>1691.767416841771</v>
       </c>
       <c r="U4" t="n">
-        <v>1981.571904688276</v>
+        <v>1411.582968342075</v>
       </c>
       <c r="V4" t="n">
-        <v>1981.571904688276</v>
+        <v>1129.871500950104</v>
       </c>
       <c r="W4" t="n">
-        <v>1706.719500860789</v>
+        <v>855.0190971226173</v>
       </c>
       <c r="X4" t="n">
-        <v>1464.155604306595</v>
+        <v>855.0190971226173</v>
       </c>
       <c r="Y4" t="n">
-        <v>1237.812835996337</v>
+        <v>628.6763288123593</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1674.816201625927</v>
+        <v>533.9701437626245</v>
       </c>
       <c r="C5" t="n">
-        <v>1651.955875679631</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D5" t="n">
-        <v>1632.703658905035</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E5" t="n">
-        <v>1206.726719052893</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
-        <v>781.6025372422929</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>1100.603903091853</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>1100.603903091853</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>1651.269438076291</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O5" t="n">
-        <v>1651.269438076291</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P5" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>1982.679697168451</v>
       </c>
       <c r="U5" t="n">
-        <v>1966.556343058789</v>
+        <v>1724.324787764864</v>
       </c>
       <c r="V5" t="n">
-        <v>1966.556343058789</v>
+        <v>1366.835372891113</v>
       </c>
       <c r="W5" t="n">
-        <v>1966.556343058789</v>
+        <v>1366.835372891113</v>
       </c>
       <c r="X5" t="n">
-        <v>1691.921027881758</v>
+        <v>1359.155778099264</v>
       </c>
       <c r="Y5" t="n">
-        <v>1690.624161877053</v>
+        <v>953.8185080541546</v>
       </c>
     </row>
     <row r="6">
@@ -4647,25 +4649,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>205.6899987133984</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>205.6899987133984</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M6" t="n">
-        <v>756.3555336978366</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N6" t="n">
-        <v>1307.021068682275</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O6" t="n">
-        <v>1307.021068682275</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P6" t="n">
-        <v>1307.021068682275</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>717.8575411161469</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>545.8849779950629</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>382.5682051218336</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>216.3599992746871</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4741,34 +4743,34 @@
         <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2214.453945631724</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2214.453945631724</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>1971.114597857624</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U7" t="n">
-        <v>1690.930149357929</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="V7" t="n">
-        <v>1409.218681965958</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="W7" t="n">
-        <v>1134.366278138471</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="X7" t="n">
-        <v>1134.366278138471</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>908.0235098282126</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1674.816201625927</v>
+        <v>1270.775797585522</v>
       </c>
       <c r="C8" t="n">
-        <v>1247.915471639227</v>
+        <v>843.8750675988226</v>
       </c>
       <c r="D8" t="n">
-        <v>1228.663254864631</v>
+        <v>420.5824467838229</v>
       </c>
       <c r="E8" t="n">
-        <v>1206.726719052893</v>
+        <v>398.6459109720846</v>
       </c>
       <c r="F8" t="n">
-        <v>781.6025372422929</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G8" t="n">
         <v>377.2634748317415</v>
@@ -4805,19 +4807,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>455.3583126271592</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
         <v>455.3583126271592</v>
       </c>
       <c r="M8" t="n">
-        <v>455.3583126271592</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="N8" t="n">
-        <v>1006.023847611597</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O8" t="n">
-        <v>1556.689382596036</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P8" t="n">
         <v>2107.354917580474</v>
@@ -4832,22 +4834,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2120.543958335517</v>
+        <v>1950.306477736444</v>
       </c>
       <c r="U8" t="n">
-        <v>1862.189048931929</v>
+        <v>1691.951568332856</v>
       </c>
       <c r="V8" t="n">
-        <v>1862.189048931929</v>
+        <v>1691.951568332856</v>
       </c>
       <c r="W8" t="n">
-        <v>1699.600622673607</v>
+        <v>1295.560218633203</v>
       </c>
       <c r="X8" t="n">
-        <v>1691.921027881758</v>
+        <v>1287.880623841354</v>
       </c>
       <c r="Y8" t="n">
-        <v>1690.624161877053</v>
+        <v>1286.583757836648</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K9" t="n">
-        <v>595.1637600336857</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L9" t="n">
-        <v>1145.829295018124</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="M9" t="n">
-        <v>1145.829295018124</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="N9" t="n">
-        <v>1145.829295018124</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O9" t="n">
-        <v>1302.520320645319</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
         <v>1853.185855629757</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>955.7067844524004</v>
+        <v>550.2887579908825</v>
       </c>
       <c r="C10" t="n">
-        <v>955.7067844524004</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791711</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4984,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1811.43685720741</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1811.43685720741</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1614.779418028919</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="W10" t="n">
-        <v>1614.779418028919</v>
+        <v>1209.361391567401</v>
       </c>
       <c r="X10" t="n">
-        <v>1372.215521474724</v>
+        <v>966.797495013206</v>
       </c>
       <c r="Y10" t="n">
-        <v>1145.872753164466</v>
+        <v>740.4547267029481</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2079.78831433928</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C11" t="n">
-        <v>1652.88758435258</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D11" t="n">
-        <v>1652.88758435258</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E11" t="n">
-        <v>1226.910644500437</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F11" t="n">
-        <v>801.7864626898374</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>397.4474002792861</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>99.57902175332094</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>427.2856093136877</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>1142.793917289187</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1943.23552968699</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>1943.23552968699</v>
+        <v>2974.519853142615</v>
       </c>
       <c r="N11" t="n">
-        <v>2316.109577559902</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="O11" t="n">
-        <v>3116.551189957705</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P11" t="n">
-        <v>3116.551189957705</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q11" t="n">
-        <v>3116.551189957705</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839608</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3129.740230712749</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>2908.814659757382</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>2650.459750353794</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2292.970335480044</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>2292.970335480044</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>2079.78831433928</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2079.78831433928</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>64.68215049679216</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L12" t="n">
-        <v>865.1237628945952</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M12" t="n">
-        <v>865.1237628945952</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="N12" t="n">
-        <v>865.1237628945952</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="O12" t="n">
-        <v>1157.172064038804</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="P12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>696.1008455522136</v>
+        <v>1017.742919805303</v>
       </c>
       <c r="C13" t="n">
-        <v>696.1008455522136</v>
+        <v>847.303066961835</v>
       </c>
       <c r="D13" t="n">
-        <v>646.3169673209479</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="E13" t="n">
-        <v>480.1087614738015</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F13" t="n">
-        <v>308.2469872483618</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G13" t="n">
-        <v>308.2469872483618</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H13" t="n">
-        <v>164.4507187565162</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267874</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2245.09517790992</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2245.09517790992</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>2001.75583013582</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>1721.571381636125</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V13" t="n">
-        <v>1439.859914244154</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W13" t="n">
-        <v>1165.007510416666</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="X13" t="n">
-        <v>922.4436138624716</v>
+        <v>1017.742919805303</v>
       </c>
       <c r="Y13" t="n">
-        <v>696.1008455522136</v>
+        <v>1017.742919805303</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2043.059882087151</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>1616.159152100451</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1192.866531285451</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>766.8895914333087</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>766.8895914333087</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>362.5505290227574</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>64.68215049679216</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>427.2856093136877</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>427.2856093136877</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1227.727221711491</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>1227.727221711491</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>1227.727221711491</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O14" t="n">
-        <v>1952.186431295595</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P14" t="n">
-        <v>2660.465710453522</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q14" t="n">
-        <v>3116.551189957705</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839608</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3129.740230712749</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3129.740230712749</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3129.740230712749</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3129.740230712749</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>2733.348881013096</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>2733.348881013096</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2462.908246378681</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>336.3796397763832</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>926.8645663447228</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.928168679499</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.928168679499</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N15" t="n">
-        <v>1072.928168679499</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O15" t="n">
-        <v>1873.369781077302</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>610.65223318677</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C16" t="n">
-        <v>569.009100275146</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D16" t="n">
-        <v>569.009100275146</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E16" t="n">
-        <v>402.8008944279996</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F16" t="n">
-        <v>230.93912020256</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G16" t="n">
-        <v>64.68215049679216</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H16" t="n">
-        <v>64.68215049679216</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267874</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2245.09517790992</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2074.960130429055</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T16" t="n">
-        <v>1831.620782654955</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U16" t="n">
-        <v>1551.43633415526</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V16" t="n">
-        <v>1269.724866763288</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="W16" t="n">
-        <v>1269.724866763288</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="X16" t="n">
-        <v>1027.160970209094</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y16" t="n">
-        <v>800.8182018988357</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5501,13 +5503,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5516,22 +5518,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>903.7433331113961</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1833.368380730673</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2837.654482149731</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3813.905540636432</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>4659.050190787244</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q17" t="n">
         <v>5115.135670291427</v>
@@ -5598,16 +5600,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M18" t="n">
-        <v>821.6753975134684</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.582799500206</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1070.140847647432</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C19" t="n">
-        <v>913.7427045492574</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D19" t="n">
-        <v>750.4259316760281</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E19" t="n">
-        <v>584.2177258288816</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F19" t="n">
-        <v>412.355951603442</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G19" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5701,22 +5703,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="W19" t="n">
-        <v>1260.306816359498</v>
+        <v>1790.689676197778</v>
       </c>
       <c r="X19" t="n">
-        <v>1260.306816359498</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y19" t="n">
-        <v>1260.306816359498</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5738,13 +5740,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5768,19 +5770,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5838,10 +5840,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O21" t="n">
         <v>1910.990343986338</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>985.454412532011</v>
+        <v>326.3817789554956</v>
       </c>
       <c r="C22" t="n">
-        <v>985.454412532011</v>
+        <v>154.4092158344116</v>
       </c>
       <c r="D22" t="n">
-        <v>822.1376396587817</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E22" t="n">
-        <v>655.9294338116352</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F22" t="n">
-        <v>484.0676595861956</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>317.8106898804278</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>174.0144213885822</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5950,10 +5952,10 @@
         <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>985.454412532011</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.454412532011</v>
+        <v>516.5477476675612</v>
       </c>
     </row>
     <row r="23">
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>778.6022263052665</v>
+        <v>655.1318596602905</v>
       </c>
       <c r="C25" t="n">
-        <v>606.6296631841825</v>
+        <v>483.1592965392065</v>
       </c>
       <c r="D25" t="n">
-        <v>606.6296631841825</v>
+        <v>319.8425236659772</v>
       </c>
       <c r="E25" t="n">
-        <v>440.421457337036</v>
+        <v>319.8425236659772</v>
       </c>
       <c r="F25" t="n">
-        <v>268.5596831115964</v>
+        <v>147.9807494405376</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>147.9807494405376</v>
       </c>
       <c r="H25" t="n">
         <v>102.3027134058285</v>
@@ -6172,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1759.191944545161</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1477.48047715319</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.628073325703</v>
+        <v>1314.204493236809</v>
       </c>
       <c r="X25" t="n">
-        <v>1195.11096332759</v>
+        <v>1071.640596682614</v>
       </c>
       <c r="Y25" t="n">
-        <v>968.7681950173321</v>
+        <v>845.2978283723562</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>4935.721337874071</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6312,10 +6314,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1021.509065974867</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N27" t="n">
-        <v>1021.509065974867</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O27" t="n">
         <v>1910.990343986338</v>
@@ -6546,16 +6548,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>939.1015214887346</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N30" t="n">
-        <v>939.1015214887346</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P30" t="n">
         <v>1910.990343986338</v>
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>440.483482374059</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>268.510919252975</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>268.510919252975</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
         <v>102.3027134058285</v>
@@ -6646,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1936.304435669731</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1656.119987170036</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1374.408519778064</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1099.556115950577</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>856.9922193963826</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>630.6494510861246</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1040.608704104281</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>1970.233751723557</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2974.519853142615</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6780,19 +6782,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>373.4203922683193</v>
+        <v>431.8764559848257</v>
       </c>
       <c r="C34" t="n">
-        <v>201.4478291472353</v>
+        <v>431.8764559848257</v>
       </c>
       <c r="D34" t="n">
-        <v>201.4478291472353</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="E34" t="n">
-        <v>201.4478291472353</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F34" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G34" t="n">
         <v>102.3027134058285</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1307.345429672325</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>1032.493025844838</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>789.9291292906429</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y34" t="n">
-        <v>563.5863609803849</v>
+        <v>622.0424246968914</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>456.2068044646694</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1171.715112440168</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>2101.340160059445</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>3105.626261478503</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>3105.626261478503</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O35" t="n">
-        <v>3950.770911629315</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P35" t="n">
-        <v>4659.050190787243</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -6977,7 +6979,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C36" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D36" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E36" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F36" t="n">
-        <v>3453.877904731004</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>3306.448039710918</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L36" t="n">
-        <v>3306.448039710918</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M36" t="n">
-        <v>4362.434577686963</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="N36" t="n">
-        <v>4362.434577686963</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="O36" t="n">
-        <v>5115.135670291426</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="P36" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q36" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S36" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T36" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U36" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V36" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W36" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X36" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y36" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>584.2177258288816</v>
+        <v>3729.364118014585</v>
       </c>
       <c r="C37" t="n">
-        <v>584.2177258288816</v>
+        <v>3557.391554893501</v>
       </c>
       <c r="D37" t="n">
-        <v>584.2177258288816</v>
+        <v>3394.074782020272</v>
       </c>
       <c r="E37" t="n">
-        <v>584.2177258288816</v>
+        <v>3227.866576173125</v>
       </c>
       <c r="F37" t="n">
-        <v>412.355951603442</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0989818976742</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I37" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L37" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M37" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N37" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O37" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P37" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S37" t="n">
-        <v>2235.67712750613</v>
+        <v>4945.000622810562</v>
       </c>
       <c r="T37" t="n">
-        <v>1992.33777973203</v>
+        <v>4945.000622810562</v>
       </c>
       <c r="U37" t="n">
-        <v>1712.153331232334</v>
+        <v>4945.000622810562</v>
       </c>
       <c r="V37" t="n">
-        <v>1518.142763232887</v>
+        <v>4663.289155418591</v>
       </c>
       <c r="W37" t="n">
-        <v>1243.2903594054</v>
+        <v>4388.436751591104</v>
       </c>
       <c r="X37" t="n">
-        <v>1000.726462851205</v>
+        <v>4145.872855036909</v>
       </c>
       <c r="Y37" t="n">
-        <v>774.3836945409473</v>
+        <v>3919.530086726651</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,13 +7162,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7175,34 +7177,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>533.9931985757484</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L38" t="n">
-        <v>1463.618246195025</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M38" t="n">
-        <v>2467.904347614083</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N38" t="n">
-        <v>3444.155406100784</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O38" t="n">
-        <v>4289.300056251596</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P38" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7260,10 +7262,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O39" t="n">
         <v>1910.990343986338</v>
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>875.4793615910734</v>
+        <v>612.3452565994986</v>
       </c>
       <c r="C40" t="n">
-        <v>703.5067984699893</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="D40" t="n">
-        <v>540.1900255967601</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E40" t="n">
-        <v>540.1900255967601</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>2108.166209895171</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>1827.981761395475</v>
       </c>
       <c r="V40" t="n">
-        <v>1542.018283751469</v>
+        <v>1546.270294003504</v>
       </c>
       <c r="W40" t="n">
-        <v>1534.551995167592</v>
+        <v>1271.417890176017</v>
       </c>
       <c r="X40" t="n">
-        <v>1291.988098613397</v>
+        <v>1028.853993621822</v>
       </c>
       <c r="Y40" t="n">
-        <v>1065.645330303139</v>
+        <v>802.5112253115642</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1765.976622961234</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C41" t="n">
-        <v>1339.075892974534</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D41" t="n">
-        <v>915.7832721595344</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E41" t="n">
-        <v>489.8063323073919</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F41" t="n">
-        <v>64.68215049679215</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G41" t="n">
-        <v>64.68215049679215</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>64.68215049679215</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>64.68215049679215</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>780.1904584722912</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>780.1904584722912</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>1580.632070870094</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N41" t="n">
-        <v>1580.632070870094</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O41" t="n">
-        <v>2381.073683267897</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P41" t="n">
-        <v>2778.022045335424</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>3234.107524839607</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839607</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3234.107524839607</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3234.107524839607</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>2975.752615436019</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>2618.263200562269</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>2597.544986085017</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>2185.824987252764</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2185.824987252764</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M42" t="n">
-        <v>526.7633817320166</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N42" t="n">
-        <v>1327.204994129819</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O42" t="n">
-        <v>1327.204994129819</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
-        <v>1327.204994129819</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>1791.350470992599</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>832.2052303037439</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C43" t="n">
-        <v>660.2326671826598</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="D43" t="n">
-        <v>496.9158943094305</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="E43" t="n">
-        <v>330.7076884622841</v>
+        <v>207.2121864211728</v>
       </c>
       <c r="F43" t="n">
-        <v>330.7076884622841</v>
+        <v>207.2121864211728</v>
       </c>
       <c r="G43" t="n">
-        <v>164.4507187565162</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>164.4507187565162</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267873</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2234.973362044428</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2064.838314563563</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T43" t="n">
-        <v>1821.498966789462</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U43" t="n">
-        <v>1821.498966789462</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V43" t="n">
-        <v>1539.787499397491</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W43" t="n">
-        <v>1264.935095570004</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X43" t="n">
-        <v>1022.371199015809</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.371199015809</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1210.967331648357</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>1210.967331648357</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>787.674710833357</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>787.674710833357</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>362.5505290227573</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>362.5505290227573</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>64.68215049679215</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>427.2856093136876</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K44" t="n">
-        <v>1142.793917289187</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L44" t="n">
-        <v>1943.23552968699</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M44" t="n">
-        <v>1943.23552968699</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N44" t="n">
-        <v>2660.465710453521</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O44" t="n">
-        <v>2660.465710453521</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P44" t="n">
-        <v>2660.465710453521</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q44" t="n">
-        <v>3116.551189957705</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839607</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3129.740230712748</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>2908.814659757381</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>2650.459750353793</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>2292.970335480043</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>1896.57898578039</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>1896.57898578039</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>1630.815695939887</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M45" t="n">
-        <v>865.123762894595</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N45" t="n">
-        <v>865.123762894595</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O45" t="n">
-        <v>1157.172064038804</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P45" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1048.094704761305</v>
+        <v>1126.284997949051</v>
       </c>
       <c r="C46" t="n">
-        <v>876.122141640221</v>
+        <v>954.3124348279669</v>
       </c>
       <c r="D46" t="n">
-        <v>712.8053687669917</v>
+        <v>850.194499935749</v>
       </c>
       <c r="E46" t="n">
-        <v>546.5971629198452</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F46" t="n">
-        <v>374.7353886944056</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G46" t="n">
-        <v>208.4784189886378</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H46" t="n">
-        <v>64.68215049679215</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267873</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2198.056564597094</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>2198.056564597094</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T46" t="n">
-        <v>2198.056564597094</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U46" t="n">
-        <v>1917.872116097398</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V46" t="n">
-        <v>1636.160648705427</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="W46" t="n">
-        <v>1361.30824487794</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="X46" t="n">
-        <v>1361.30824487794</v>
+        <v>1542.793734971375</v>
       </c>
       <c r="Y46" t="n">
-        <v>1238.260673473371</v>
+        <v>1316.450966661117</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
@@ -7988,13 +7990,13 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>405.8502960189026</v>
       </c>
       <c r="O2" t="n">
-        <v>181.6704383876113</v>
+        <v>521.167650509992</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258255</v>
+        <v>521.3520529641992</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8058,16 +8060,16 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>462.4589018454975</v>
+        <v>506.1759249873011</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298237</v>
+        <v>506.2917778681974</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>506.8734716662958</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>122.5282489949906</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
@@ -8134,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.64739370149798</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>548.8576414812763</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>300.4142109955939</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8297,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>185.2192072314655</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
@@ -8304,10 +8306,10 @@
         <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>267.0107895760206</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
@@ -8316,7 +8318,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8389,10 +8391,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>315.915358154857</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,13 +8455,13 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>450.7747902674474</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>453.322231905261</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
         <v>593.5074359500402</v>
@@ -8468,7 +8470,7 @@
         <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
@@ -8526,31 +8528,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>259.4889279983319</v>
       </c>
       <c r="O9" t="n">
-        <v>181.4456529820153</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8693,25 +8695,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>846.8389236425249</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>910.6437127227809</v>
       </c>
       <c r="N11" t="n">
-        <v>413.9200752313274</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>845.9178405659261</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,10 +8771,10 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>831.0419679241317</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -8781,10 +8783,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>318.1701737062714</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>407.0273017394389</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8927,25 +8929,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>846.8389236425249</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>370.4410136063929</v>
       </c>
       <c r="O14" t="n">
-        <v>769.1679387339066</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9003,13 +9005,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>170.0540789715791</v>
+        <v>529.5908311320803</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
@@ -9018,10 +9020,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>831.6987709321243</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9164,7 +9166,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>479.0344602783164</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9179,10 +9181,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
         <v>35.03264989479647</v>
@@ -9246,19 +9248,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>105.0107851302144</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9416,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>466.324307620685</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q20" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,13 +9488,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>100.0581876036193</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,13 +9962,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>951.5880457335786</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10194,19 +10196,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
-        <v>281.4457336203087</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>617.2823097660786</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10361,16 +10363,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,22 +10430,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>530.2476341400729</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>386.8988393430016</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10595,7 +10597,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>37.27962283444602</v>
+        <v>736.7071336234585</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10604,10 +10606,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,22 +10667,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>783.4760236661244</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>407.0273017394389</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
@@ -10823,7 +10825,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>471.8155959159405</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10844,7 +10846,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,13 +10910,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>845.9581441093336</v>
+        <v>653.6520906270367</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>845.9178405659259</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>438.5333032925822</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,22 +11147,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>489.8454989317466</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N42" t="n">
-        <v>829.8699094234435</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>846.8389236425247</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>761.7545529016498</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>124.3756766890881</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11382,16 +11384,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>831.6236617222298</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O45" t="n">
-        <v>318.1701737062717</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23318,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>196.5525979145735</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,19 +23418,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>1.51738317483975</v>
       </c>
       <c r="D13" t="n">
-        <v>112.397565695544</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23504,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>133.5476690565878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>129.0261359073654</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>22.13019988286487</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>15.41867582267994</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>53.32812537571792</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>110.0981677401998</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>27.77629167420069</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>97.13705013256518</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -24412,7 +24414,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>232.6963186905213</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24844,10 +24846,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24886,10 +24888,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
-        <v>66.39245920468204</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>71.9894918991925</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>104.4397302590399</v>
       </c>
     </row>
     <row r="35">
@@ -25312,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>22.28896832823406</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>86.82389039859868</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>68.10191868181104</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>264.7122540911734</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25688,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>371.9164038701767</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25786,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>60.73402172351933</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>36.54762947286065</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25865,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25928,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>138.1782404025604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>58.60684960120136</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -26080,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>102.2622449366318</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>657362.3773684908</v>
+        <v>652161.2942802444</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>501456.3204828235</v>
+        <v>676293.9570017718</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>501456.3204828235</v>
+        <v>676293.9570017719</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>676293.9570017719</v>
+        <v>676293.957001772</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>676293.957001772</v>
+        <v>676293.9570017719</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>676293.9570017719</v>
+        <v>676293.957001772</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>501456.3204828233</v>
+        <v>676293.957001772</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>501456.3204828233</v>
+        <v>676293.957001772</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>422270.9343080933</v>
+      </c>
+      <c r="C2" t="n">
         <v>422270.9343080931</v>
       </c>
-      <c r="C2" t="n">
-        <v>422270.9343080932</v>
-      </c>
       <c r="D2" t="n">
-        <v>422270.934308093</v>
+        <v>422270.9343080931</v>
       </c>
       <c r="E2" t="n">
-        <v>302152.8212019906</v>
+        <v>407472.0422746491</v>
       </c>
       <c r="F2" t="n">
-        <v>302152.8212019906</v>
+        <v>407472.042274649</v>
       </c>
       <c r="G2" t="n">
-        <v>407472.0422746491</v>
+        <v>407472.042274649</v>
       </c>
       <c r="H2" t="n">
-        <v>407472.0422746489</v>
+        <v>407472.042274649</v>
       </c>
       <c r="I2" t="n">
         <v>407472.042274649</v>
       </c>
       <c r="J2" t="n">
+        <v>407472.042274649</v>
+      </c>
+      <c r="K2" t="n">
         <v>407472.0422746491</v>
       </c>
-      <c r="K2" t="n">
-        <v>407472.0422746489</v>
-      </c>
       <c r="L2" t="n">
-        <v>407472.0422746489</v>
+        <v>407472.042274649</v>
       </c>
       <c r="M2" t="n">
         <v>407472.0422746489</v>
@@ -26350,10 +26352,10 @@
         <v>407472.0422746491</v>
       </c>
       <c r="O2" t="n">
-        <v>302152.8212019905</v>
+        <v>407472.0422746491</v>
       </c>
       <c r="P2" t="n">
-        <v>302152.8212019908</v>
+        <v>407472.0422746493</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>186404.7334147372</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361228</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.95115346226</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115405</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>145533.6699348165</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701984</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537385</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199866.3919893415</v>
+        <v>211246.6236465253</v>
       </c>
       <c r="C4" t="n">
         <v>199866.3919893415</v>
@@ -26424,13 +26426,13 @@
         <v>199866.3919893415</v>
       </c>
       <c r="E4" t="n">
-        <v>74852.47981333025</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="F4" t="n">
-        <v>74852.47981333025</v>
+        <v>101012.8540458319</v>
       </c>
       <c r="G4" t="n">
-        <v>101012.8540458319</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="H4" t="n">
         <v>101012.8540458319</v>
@@ -26442,10 +26444,10 @@
         <v>101012.8540458319</v>
       </c>
       <c r="K4" t="n">
+        <v>101012.8540458319</v>
+      </c>
+      <c r="L4" t="n">
         <v>101012.8540458318</v>
-      </c>
-      <c r="L4" t="n">
-        <v>101012.8540458319</v>
       </c>
       <c r="M4" t="n">
         <v>101012.8540458318</v>
@@ -26454,10 +26456,10 @@
         <v>101012.8540458319</v>
       </c>
       <c r="O4" t="n">
-        <v>74852.47981333025</v>
+        <v>101012.8540458319</v>
       </c>
       <c r="P4" t="n">
-        <v>74852.47981333025</v>
+        <v>101012.8540458319</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742813</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756204</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756204</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756203</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756203</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-31446.4421334138</v>
+        <v>-14141.60823018436</v>
       </c>
       <c r="C6" t="n">
+        <v>131551.4576077112</v>
+      </c>
+      <c r="D6" t="n">
         <v>154958.2912813235</v>
       </c>
-      <c r="D6" t="n">
-        <v>154958.2912813234</v>
-      </c>
       <c r="E6" t="n">
-        <v>102810.9558576361</v>
+        <v>12969.76948374703</v>
       </c>
       <c r="F6" t="n">
-        <v>178141.9070110983</v>
+        <v>228709.1260403875</v>
       </c>
       <c r="G6" t="n">
-        <v>99818.7262288471</v>
+        <v>228709.1260403874</v>
       </c>
       <c r="H6" t="n">
-        <v>228709.1260403874</v>
+        <v>228709.1260403875</v>
       </c>
       <c r="I6" t="n">
-        <v>228709.1260403874</v>
+        <v>228709.1260403875</v>
       </c>
       <c r="J6" t="n">
-        <v>83175.45610557102</v>
+        <v>102131.8574600987</v>
       </c>
       <c r="K6" t="n">
-        <v>228709.1260403874</v>
+        <v>210062.5256833677</v>
       </c>
       <c r="L6" t="n">
-        <v>228709.1260403874</v>
+        <v>228709.1260403875</v>
       </c>
       <c r="M6" t="n">
-        <v>165835.1890750135</v>
+        <v>48645.25458521969</v>
       </c>
       <c r="N6" t="n">
-        <v>228709.1260403875</v>
+        <v>228709.1260403876</v>
       </c>
       <c r="O6" t="n">
-        <v>178141.9070110983</v>
+        <v>228709.1260403876</v>
       </c>
       <c r="P6" t="n">
-        <v>178141.9070110985</v>
+        <v>228709.1260403877</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099021</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099021</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099018</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099018</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943079</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.2570363629548</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943079</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.2570363629548</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>179.2305980972478</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>237.8220101678111</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>76.8928338402259</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>79.23215548632137</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,16 +27593,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>82.23069669041837</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>135.7138368186701</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27786,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>36.21549341735289</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>59.37454630891006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -27856,16 +27858,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>50.18120945273068</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,7 +27915,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>231.4648942069176</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
@@ -28011,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>146.6160721764771</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,13 +28067,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>84.20348793134471</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -34696,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,13 +34710,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>368.5706731844566</v>
       </c>
       <c r="O2" t="n">
-        <v>144.2794790315872</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="P2" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34778,16 +34780,16 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>440.0596680121642</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="L3" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="M3" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>101.1852207814489</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0.01063771759611215</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>510.5455990486534</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>263.0232516395698</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>162.8199733981322</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35024,10 +35026,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
+        <v>245.6677613624789</v>
+      </c>
+      <c r="O6" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35036,7 +35038,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35109,10 +35111,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>293.5345574968705</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,13 +35175,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>415.010189472638</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
         <v>556.2278131155941</v>
@@ -35188,7 +35190,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35246,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
+        <v>238.1458997847902</v>
+      </c>
+      <c r="O9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>158.2737632597931</v>
-      </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,25 +35415,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>808.5268812099021</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>873.2124498233492</v>
       </c>
       <c r="N11" t="n">
-        <v>376.6404523968814</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>808.5268812099021</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,10 +35491,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>808.5268812099021</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35501,10 +35503,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>294.9982839840492</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35647,25 +35649,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>808.5268812099021</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>333.1613907719469</v>
       </c>
       <c r="O14" t="n">
-        <v>731.7769793778825</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35723,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>147.5389922573496</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35738,10 +35740,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>808.5268812099021</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35884,7 +35886,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>443.269859483507</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35899,10 +35901,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35966,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>83.23994392538575</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36136,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>428.7489458104537</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>62.48282579338804</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>928.4912652212506</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36914,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
-        <v>258.2738438980865</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37066,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>581.5177089712693</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37081,16 +37083,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>357.4788798574151</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37315,7 +37317,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>699.4275107890124</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37324,10 +37326,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>760.3041339439022</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>436.0509951211312</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37564,7 +37566,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,13 +37630,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>808.5268812099018</v>
+        <v>616.220827727605</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>808.5268812099018</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>400.9579414823509</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>466.7487184194187</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N42" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>808.5268812099018</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>724.4749300672038</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>86.80031487885682</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,16 +38104,16 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>808.5268812099018</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O45" t="n">
-        <v>294.9982839840495</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1254144.224585478</v>
+        <v>1253447.563380388</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114754</v>
+        <v>612367.9462114749</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>236.4192825513669</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>133.7203874431029</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>93.25032264295928</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>186.5070170806239</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -882,10 +882,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>30.59709888020232</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>136.4856185553948</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1104,22 +1104,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>108.3150987015002</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>218.0080577057887</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1135,25 +1135,25 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>258.8689343478357</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>168.5351057930825</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>7.602798843930202</v>
@@ -1293,13 +1293,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>23.63676531339606</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -1311,7 +1311,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1381,7 +1381,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -1423,7 +1423,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>168.7354543150334</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>123.0673923170446</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -1590,13 +1590,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868337</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -1770,16 +1770,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>96.22097101916906</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>218.008057705788</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1852,7 +1852,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
@@ -2007,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>51.58543740429732</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>186.810132212935</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2143,7 +2143,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026577</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -2244,13 +2244,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>51.58543740429721</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>106.6222295383831</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
@@ -2295,7 +2295,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271523</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2481,7 +2481,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>45.22125567436197</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2535,7 +2535,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>168.9164623971668</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3189,25 +3189,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>228.0996351671469</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>119.6396103681154</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3432,10 +3432,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>147.8541881549511</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>241.4398033566766</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -3669,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>172.804035614548</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
@@ -3754,13 +3754,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>103.8603782851908</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>76.64068269426198</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -3954,13 +3954,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
@@ -4140,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>103.0767555432956</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.5461237886719</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159.0305212218191</v>
+        <v>640.3848264867752</v>
       </c>
       <c r="C2" t="n">
-        <v>136.1701952755233</v>
+        <v>505.3137280593986</v>
       </c>
       <c r="D2" t="n">
-        <v>116.9179785009276</v>
+        <v>486.0615112848029</v>
       </c>
       <c r="E2" t="n">
-        <v>94.98144268918922</v>
+        <v>60.08457143266048</v>
       </c>
       <c r="F2" t="n">
-        <v>73.89766491899353</v>
+        <v>39.00079366246479</v>
       </c>
       <c r="G2" t="n">
-        <v>73.59900654884622</v>
+        <v>38.70213529231748</v>
       </c>
       <c r="H2" t="n">
-        <v>73.59900654884622</v>
+        <v>38.70213529231748</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231748</v>
       </c>
       <c r="J2" t="n">
-        <v>38.70213529231743</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>38.70213529231743</v>
+        <v>880.2445183516418</v>
       </c>
       <c r="L2" t="n">
-        <v>38.70213529231743</v>
+        <v>882.5260259873594</v>
       </c>
       <c r="M2" t="n">
-        <v>38.70213529231743</v>
+        <v>882.5260259873594</v>
       </c>
       <c r="N2" t="n">
-        <v>403.5871017449294</v>
+        <v>882.5260259873594</v>
       </c>
       <c r="O2" t="n">
-        <v>882.5260259873576</v>
+        <v>882.5260259873594</v>
       </c>
       <c r="P2" t="n">
-        <v>1361.464950229786</v>
+        <v>1361.464950229788</v>
       </c>
       <c r="Q2" t="n">
-        <v>1817.550429733969</v>
+        <v>1817.550429733971</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489012</v>
+        <v>1830.739470489014</v>
       </c>
       <c r="T2" t="n">
-        <v>1830.739470489012</v>
+        <v>1830.739470489014</v>
       </c>
       <c r="U2" t="n">
-        <v>1572.384561085424</v>
+        <v>1830.739470489014</v>
       </c>
       <c r="V2" t="n">
-        <v>1214.895146211673</v>
+        <v>1473.250055615264</v>
       </c>
       <c r="W2" t="n">
-        <v>1214.895146211673</v>
+        <v>1473.250055615264</v>
       </c>
       <c r="X2" t="n">
-        <v>803.1751473794207</v>
+        <v>1061.530056783011</v>
       </c>
       <c r="Y2" t="n">
-        <v>397.837877334311</v>
+        <v>656.1927867379012</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>693.5426250668166</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>576.0367215843214</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>472.1967630996064</v>
+        <v>384.4797643565625</v>
       </c>
       <c r="E3" t="n">
-        <v>367.4948293725436</v>
+        <v>279.7778306294997</v>
       </c>
       <c r="F3" t="n">
-        <v>273.8489990554478</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>179.7952272730518</v>
+        <v>92.07822853000789</v>
       </c>
       <c r="H3" t="n">
-        <v>126.4191340353614</v>
+        <v>38.70213529231748</v>
       </c>
       <c r="I3" t="n">
-        <v>126.4191340353614</v>
+        <v>46.14877825422932</v>
       </c>
       <c r="J3" t="n">
-        <v>398.1166233149524</v>
+        <v>46.14877825422932</v>
       </c>
       <c r="K3" t="n">
-        <v>877.0555475573806</v>
+        <v>328.5536830608376</v>
       </c>
       <c r="L3" t="n">
-        <v>1355.994471799809</v>
+        <v>807.4926073032664</v>
       </c>
       <c r="M3" t="n">
-        <v>1834.933396042237</v>
+        <v>807.4926073032664</v>
       </c>
       <c r="N3" t="n">
-        <v>1935.106764615871</v>
+        <v>807.4926073032664</v>
       </c>
       <c r="O3" t="n">
-        <v>1935.106764615871</v>
+        <v>1286.431531545695</v>
       </c>
       <c r="P3" t="n">
-        <v>1935.106764615871</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="Q3" t="n">
-        <v>1935.106764615871</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
-        <v>1935.106764615871</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1853.782517177126</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1711.902581474804</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1527.134385394441</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1322.161246533707</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.639869366924</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>962.162523133587</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>822.4696344868794</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>628.6763288123593</v>
+        <v>540.2484409923986</v>
       </c>
       <c r="C4" t="n">
-        <v>628.6763288123593</v>
+        <v>368.2758778713146</v>
       </c>
       <c r="D4" t="n">
-        <v>465.35955593913</v>
+        <v>204.9591049980853</v>
       </c>
       <c r="E4" t="n">
-        <v>299.1513500919835</v>
+        <v>204.9591049980853</v>
       </c>
       <c r="F4" t="n">
         <v>204.9591049980853</v>
       </c>
       <c r="G4" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231748</v>
       </c>
       <c r="H4" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231748</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231748</v>
       </c>
       <c r="J4" t="n">
-        <v>38.71266663273758</v>
+        <v>96.1934635164755</v>
       </c>
       <c r="K4" t="n">
-        <v>38.71266663273758</v>
+        <v>322.7210647223127</v>
       </c>
       <c r="L4" t="n">
-        <v>393.4019879271584</v>
+        <v>677.4103860167335</v>
       </c>
       <c r="M4" t="n">
-        <v>784.5877828974092</v>
+        <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1162.079293773445</v>
+        <v>1446.08769186302</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.507422453208</v>
+        <v>1517.507422453211</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375109</v>
+        <v>1808.106634375112</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="R4" t="n">
-        <v>1935.106764615871</v>
+        <v>1888.068151303047</v>
       </c>
       <c r="S4" t="n">
-        <v>1935.106764615871</v>
+        <v>1717.933103822182</v>
       </c>
       <c r="T4" t="n">
-        <v>1691.767416841771</v>
+        <v>1529.542177478117</v>
       </c>
       <c r="U4" t="n">
-        <v>1411.582968342075</v>
+        <v>1529.542177478117</v>
       </c>
       <c r="V4" t="n">
-        <v>1129.871500950104</v>
+        <v>1247.830710086146</v>
       </c>
       <c r="W4" t="n">
-        <v>855.0190971226173</v>
+        <v>972.9783062586592</v>
       </c>
       <c r="X4" t="n">
-        <v>855.0190971226173</v>
+        <v>730.4144097044643</v>
       </c>
       <c r="Y4" t="n">
-        <v>628.6763288123593</v>
+        <v>730.4144097044643</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>533.9701437626245</v>
+        <v>1780.988227140366</v>
       </c>
       <c r="C5" t="n">
-        <v>107.0694137759246</v>
+        <v>1758.12790119407</v>
       </c>
       <c r="D5" t="n">
-        <v>87.81719700132894</v>
+        <v>1334.83528037907</v>
       </c>
       <c r="E5" t="n">
-        <v>65.88066118959054</v>
+        <v>908.8583405269275</v>
       </c>
       <c r="F5" t="n">
-        <v>44.79688341939484</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4570,49 +4570,49 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M5" t="n">
         <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>957.7672188505812</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O5" t="n">
-        <v>1218.160237973755</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1982.679697168451</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1724.324787764864</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>1366.835372891113</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>1366.835372891113</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>1359.155778099264</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.8185080541546</v>
+        <v>1811.894387625418</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924753</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="L6" t="n">
-        <v>44.49822504924753</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M6" t="n">
-        <v>595.1637600336857</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N6" t="n">
-        <v>838.3748437825398</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O6" t="n">
-        <v>1389.040378766978</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4737,13 +4737,13 @@
         <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
         <v>2224.911252462377</v>
@@ -4752,19 +4752,19 @@
         <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668685</v>
+        <v>2068.463448541974</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894585</v>
+        <v>2068.463448541974</v>
       </c>
       <c r="U7" t="n">
-        <v>1544.188084595808</v>
+        <v>2068.463448541974</v>
       </c>
       <c r="V7" t="n">
-        <v>1544.188084595808</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="W7" t="n">
-        <v>1544.188084595808</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
         <v>1544.188084595808</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1270.775797585522</v>
+        <v>1584.282507137358</v>
       </c>
       <c r="C8" t="n">
-        <v>843.8750675988226</v>
+        <v>1561.422181191062</v>
       </c>
       <c r="D8" t="n">
-        <v>420.5824467838229</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E8" t="n">
-        <v>398.6459109720846</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F8" t="n">
-        <v>377.5621332018889</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G8" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4807,16 +4807,16 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>455.3583126271592</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M8" t="n">
-        <v>1006.023847611597</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="N8" t="n">
-        <v>1556.689382596036</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O8" t="n">
         <v>2107.354917580474</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1950.306477736444</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1691.951568332856</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V8" t="n">
-        <v>1691.951568332856</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W8" t="n">
-        <v>1295.560218633203</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="X8" t="n">
-        <v>1287.880623841354</v>
+        <v>1601.387333393189</v>
       </c>
       <c r="Y8" t="n">
-        <v>1286.583757836648</v>
+        <v>1600.090467388484</v>
       </c>
     </row>
     <row r="9">
@@ -4883,19 +4883,19 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>51.94486801115937</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>51.94486801115937</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>51.94486801115937</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="M9" t="n">
-        <v>602.6104029955975</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="N9" t="n">
-        <v>838.3748437825398</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O9" t="n">
         <v>1389.040378766978</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>550.2887579908825</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>526.4132374723006</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>526.4132374723006</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>526.4132374723006</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>354.551463246861</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4989,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V10" t="n">
-        <v>1484.213795394888</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>1209.361391567401</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>966.797495013206</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>740.4547267029481</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
         <v>839.4070255988738</v>
@@ -5041,22 +5041,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K11" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L11" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M11" t="n">
-        <v>2974.519853142615</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N11" t="n">
-        <v>3950.770911629316</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O11" t="n">
-        <v>3950.770911629316</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P11" t="n">
         <v>4659.050190787244</v>
@@ -5071,22 +5071,22 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L12" t="n">
-        <v>1529.586448057074</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M12" t="n">
-        <v>1529.586448057074</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N12" t="n">
-        <v>1529.586448057074</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O12" t="n">
-        <v>1529.586448057074</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P12" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q12" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1017.742919805303</v>
+        <v>326.3817789554966</v>
       </c>
       <c r="C13" t="n">
-        <v>847.303066961835</v>
+        <v>326.3817789554966</v>
       </c>
       <c r="D13" t="n">
-        <v>683.9862940886057</v>
+        <v>326.3817789554966</v>
       </c>
       <c r="E13" t="n">
-        <v>683.9862940886057</v>
+        <v>326.3817789554966</v>
       </c>
       <c r="F13" t="n">
-        <v>512.1245198631661</v>
+        <v>326.3817789554966</v>
       </c>
       <c r="G13" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H13" t="n">
         <v>202.0712816655526</v>
@@ -5202,49 +5202,49 @@
         <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358278</v>
       </c>
       <c r="L13" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302486</v>
       </c>
       <c r="M13" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100499</v>
       </c>
       <c r="N13" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976535</v>
       </c>
       <c r="O13" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P13" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q13" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R13" t="n">
-        <v>2235.67712750613</v>
+        <v>2235.677127506134</v>
       </c>
       <c r="S13" t="n">
-        <v>2065.542080025265</v>
+        <v>2065.542080025269</v>
       </c>
       <c r="T13" t="n">
-        <v>1822.202732251165</v>
+        <v>1822.202732251169</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.018283751469</v>
+        <v>1542.018283751473</v>
       </c>
       <c r="V13" t="n">
-        <v>1260.306816359498</v>
+        <v>1260.306816359502</v>
       </c>
       <c r="W13" t="n">
-        <v>1260.306816359498</v>
+        <v>985.4544125320151</v>
       </c>
       <c r="X13" t="n">
-        <v>1017.742919805303</v>
+        <v>742.8905159778202</v>
       </c>
       <c r="Y13" t="n">
-        <v>1017.742919805303</v>
+        <v>516.5477476675622</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
         <v>2113.800768076616</v>
@@ -5287,16 +5287,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N14" t="n">
-        <v>3444.155406100785</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O14" t="n">
-        <v>4289.300056251597</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P14" t="n">
-        <v>4997.579335409525</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q14" t="n">
         <v>4997.579335409525</v>
@@ -5305,25 +5305,25 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>692.7876399741681</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L15" t="n">
-        <v>1194.79262694784</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.79262694784</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N15" t="n">
-        <v>1194.79262694784</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O15" t="n">
-        <v>1194.79262694784</v>
+        <v>1270.928123658803</v>
       </c>
       <c r="P15" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q15" t="n">
         <v>1910.990343986338</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1185.483835930065</v>
+        <v>786.8947875232845</v>
       </c>
       <c r="C16" t="n">
-        <v>1013.511272808982</v>
+        <v>614.9222244022005</v>
       </c>
       <c r="D16" t="n">
-        <v>850.1944999357522</v>
+        <v>614.9222244022005</v>
       </c>
       <c r="E16" t="n">
-        <v>683.9862940886057</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F16" t="n">
-        <v>512.1245198631661</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G16" t="n">
         <v>345.8675501573982</v>
@@ -5460,28 +5460,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T16" t="n">
-        <v>1822.202732251165</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U16" t="n">
-        <v>1822.202732251165</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V16" t="n">
-        <v>1822.202732251165</v>
+        <v>1720.81982492729</v>
       </c>
       <c r="W16" t="n">
-        <v>1822.202732251165</v>
+        <v>1445.967421099803</v>
       </c>
       <c r="X16" t="n">
-        <v>1601.992572952389</v>
+        <v>1203.403524545608</v>
       </c>
       <c r="Y16" t="n">
-        <v>1375.649804642131</v>
+        <v>977.0607562353503</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5530,10 +5530,10 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q17" t="n">
         <v>5115.135670291427</v>
@@ -5551,16 +5551,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>1828.582799500206</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>326.3817789554957</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>154.4092158344117</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>154.4092158344117</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5694,31 +5694,31 @@
         <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2235.677127506133</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2065.542080025268</v>
       </c>
       <c r="T19" t="n">
-        <v>2065.542080025265</v>
+        <v>1822.202732251168</v>
       </c>
       <c r="U19" t="n">
-        <v>2065.542080025265</v>
+        <v>1542.018283751472</v>
       </c>
       <c r="V19" t="n">
-        <v>2065.542080025265</v>
+        <v>1260.306816359501</v>
       </c>
       <c r="W19" t="n">
-        <v>1790.689676197778</v>
+        <v>985.4544125320142</v>
       </c>
       <c r="X19" t="n">
-        <v>1601.992572952389</v>
+        <v>742.8905159778193</v>
       </c>
       <c r="Y19" t="n">
-        <v>1375.649804642131</v>
+        <v>516.5477476675613</v>
       </c>
     </row>
     <row r="20">
@@ -5752,25 +5752,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>4667.749558545297</v>
       </c>
       <c r="Q20" t="n">
         <v>5115.135670291427</v>
@@ -5779,16 +5779,16 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
         <v>3777.607131232208</v>
@@ -5831,28 +5831,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M21" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N21" t="n">
-        <v>1021.509065974867</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>326.3817789554956</v>
+        <v>653.6048407680187</v>
       </c>
       <c r="C22" t="n">
-        <v>154.4092158344116</v>
+        <v>481.6322776469347</v>
       </c>
       <c r="D22" t="n">
-        <v>102.3027134058285</v>
+        <v>481.6322776469347</v>
       </c>
       <c r="E22" t="n">
-        <v>102.3027134058285</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5928,34 +5928,34 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338095</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563995</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1869.241345563995</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1587.529878172024</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1312.677474344537</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>1070.113577790342</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675612</v>
+        <v>843.7708094800844</v>
       </c>
     </row>
     <row r="23">
@@ -5989,25 +5989,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4667.749558545297</v>
       </c>
       <c r="Q23" t="n">
         <v>5115.135670291427</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>655.1318596602905</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>483.1592965392065</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>319.8425236659772</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>319.8425236659772</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>147.9807494405376</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>147.9807494405376</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
         <v>102.3027134058285</v>
@@ -6174,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1589.056897064296</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1314.204493236809</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>1071.640596682614</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>845.2978283723562</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6311,19 +6311,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N27" t="n">
-        <v>1158.289251381874</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1655.299238527233</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3278.556980224822</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>3106.584417103738</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>3106.584417103738</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>3106.584417103738</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>5017.717281294595</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>4774.377933520494</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>4494.193485020799</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>4212.482017628828</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>3937.629613801341</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>3695.065717247146</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>3468.722948936888</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6648,7 +6648,7 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2185.297351822124</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
         <v>1941.958004048024</v>
@@ -6703,22 +6703,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>1040.608704104281</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1970.233751723557</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2974.519853142615</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3950.770911629316</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>3950.770911629316</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P32" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
         <v>5115.135670291427</v>
@@ -6776,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>431.8764559848257</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C34" t="n">
-        <v>431.8764559848257</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D34" t="n">
-        <v>268.5596831115964</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E34" t="n">
-        <v>268.5596831115964</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F34" t="n">
-        <v>268.5596831115964</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y34" t="n">
-        <v>622.0424246968914</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="35">
@@ -6937,25 +6937,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N35" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
         <v>4997.579335409525</v>
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>1529.586448057074</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>1529.586448057074</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>1529.586448057074</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1529.586448057074</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3729.364118014585</v>
+        <v>581.3883178919874</v>
       </c>
       <c r="C37" t="n">
-        <v>3557.391554893501</v>
+        <v>409.4157547709034</v>
       </c>
       <c r="D37" t="n">
-        <v>3394.074782020272</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="E37" t="n">
-        <v>3227.866576173125</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="F37" t="n">
-        <v>3078.518911370144</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G37" t="n">
-        <v>3078.518911370144</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>4945.000622810562</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>4945.000622810562</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U37" t="n">
-        <v>4945.000622810562</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V37" t="n">
-        <v>4663.289155418591</v>
+        <v>1515.313355295993</v>
       </c>
       <c r="W37" t="n">
-        <v>4388.436751591104</v>
+        <v>1240.460951468506</v>
       </c>
       <c r="X37" t="n">
-        <v>4145.872855036909</v>
+        <v>997.897054914311</v>
       </c>
       <c r="Y37" t="n">
-        <v>3919.530086726651</v>
+        <v>771.554286604053</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,40 +7162,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3561.711740982687</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O38" t="n">
-        <v>4406.8563911335</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7210,16 +7210,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M39" t="n">
-        <v>1021.509065974867</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N39" t="n">
-        <v>1021.509065974867</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>612.3452565994986</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C40" t="n">
-        <v>440.3726934784146</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D40" t="n">
-        <v>440.3726934784146</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E40" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>2108.166209895171</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>1827.981761395475</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>1546.270294003504</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W40" t="n">
-        <v>1271.417890176017</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X40" t="n">
-        <v>1028.853993621822</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y40" t="n">
-        <v>802.5112253115642</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H41" t="n">
         <v>137.1995846623573</v>
@@ -7411,7 +7411,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
         <v>1180.414480198223</v>
@@ -7420,43 +7420,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2720.098147267829</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N41" t="n">
-        <v>3696.34920575453</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O41" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M42" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N42" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O42" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P42" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>373.4203922683193</v>
+        <v>1163.130098674646</v>
       </c>
       <c r="C43" t="n">
-        <v>373.4203922683193</v>
+        <v>991.1575355535624</v>
       </c>
       <c r="D43" t="n">
-        <v>373.4203922683193</v>
+        <v>827.8407626803331</v>
       </c>
       <c r="E43" t="n">
-        <v>207.2121864211728</v>
+        <v>661.6325568331866</v>
       </c>
       <c r="F43" t="n">
-        <v>207.2121864211728</v>
+        <v>489.770782607747</v>
       </c>
       <c r="G43" t="n">
-        <v>102.3027134058285</v>
+        <v>323.5138129019792</v>
       </c>
       <c r="H43" t="n">
-        <v>102.3027134058285</v>
+        <v>179.7175444101336</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7593,28 +7593,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T43" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U43" t="n">
-        <v>1589.056897064296</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V43" t="n">
-        <v>1307.345429672325</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="W43" t="n">
-        <v>1032.493025844838</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="X43" t="n">
-        <v>789.9291292906429</v>
+        <v>1579.63883569697</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.5863609803849</v>
+        <v>1353.296067386712</v>
       </c>
     </row>
     <row r="44">
@@ -7639,7 +7639,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H44" t="n">
         <v>137.1995846623573</v>
@@ -7648,31 +7648,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N44" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O44" t="n">
-        <v>4573.117879057176</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="P44" t="n">
-        <v>4659.050190787244</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q44" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
         <v>5010.768376164567</v>
@@ -7690,7 +7690,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
         <v>2960.549862354846</v>
@@ -7724,31 +7724,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L45" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M45" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N45" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O45" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P45" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
         <v>1910.990343986338</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1126.284997949051</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C46" t="n">
-        <v>954.3124348279669</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D46" t="n">
-        <v>850.194499935749</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E46" t="n">
-        <v>683.9862940886057</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F46" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
         <v>741.0109641302445</v>
@@ -7830,28 +7830,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T46" t="n">
-        <v>2065.542080025265</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U46" t="n">
-        <v>1785.357631525569</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V46" t="n">
-        <v>1785.357631525569</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W46" t="n">
-        <v>1785.357631525569</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X46" t="n">
-        <v>1542.793734971375</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y46" t="n">
-        <v>1316.450966661117</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>519.5412919487778</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>40.61659560001446</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>405.8502960189026</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>521.167650509992</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>521.3520529641992</v>
+        <v>521.3520529641997</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8054,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>506.1759249873011</v>
+        <v>307.656713435968</v>
       </c>
       <c r="L3" t="n">
-        <v>506.2917778681974</v>
+        <v>506.291777868198</v>
       </c>
       <c r="M3" t="n">
-        <v>506.8734716662958</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>122.5282489949906</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>506.9485808761906</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>505.5475323587971</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.64739370149798</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8151,7 +8151,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>381.5174992961649</v>
+        <v>94.64032950871812</v>
       </c>
       <c r="P4" t="n">
         <v>315.9153581548562</v>
@@ -8218,28 +8218,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>300.4142109955939</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>459.4832504061476</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>267.0107895760206</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8385,7 +8385,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>402.0534574160406</v>
+        <v>402.0534574160413</v>
       </c>
       <c r="O7" t="n">
         <v>381.5174992961649</v>
@@ -8394,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,19 +8455,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>453.322231905261</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>452.4011488286621</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
@@ -8531,22 +8531,22 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>542.4468912513905</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>259.4889279983319</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
@@ -8698,16 +8698,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>910.6437127227809</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>753.0089771212694</v>
+        <v>124.3756766890881</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>867.7664080100944</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -8786,13 +8786,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>407.0273017394389</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,10 +8935,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>370.4410136063929</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
@@ -8947,7 +8947,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>397.6042905607445</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>529.5908311320803</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
@@ -9020,13 +9020,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>199.4645214722588</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9178,13 +9178,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P17" t="n">
-        <v>218.8019602116015</v>
+        <v>611.7910214708227</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>35.03264989479647</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
@@ -9257,16 +9257,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>105.0107851302144</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9412,16 +9412,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>488.0298379845275</v>
       </c>
       <c r="R20" t="n">
         <v>35.03264989479647</v>
@@ -9479,10 +9479,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
@@ -9491,19 +9491,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>426.1551116948253</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9649,16 +9649,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>488.0298379845275</v>
       </c>
       <c r="R23" t="n">
         <v>35.03264989479647</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9883,7 +9883,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,22 +9959,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>281.0208821870649</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10211,10 +10211,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>617.2823097660786</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10363,13 +10363,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
         <v>35.03264989479647</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>618.848654609434</v>
@@ -10442,16 +10442,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>530.2476341400729</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10594,10 +10594,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N35" t="n">
-        <v>736.7071336234585</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10606,7 +10606,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
@@ -10682,13 +10682,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>407.0273017394389</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10834,19 +10834,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>625.182225377852</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>292.2790261091175</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,16 +11068,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>653.6520906270367</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
@@ -11135,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
@@ -11311,10 +11311,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>891.0724241548241</v>
+        <v>611.6066190166146</v>
       </c>
       <c r="P44" t="n">
-        <v>124.3756766890881</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11372,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.51738317483975</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>41.52700769166562</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>68.32515276950592</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>22.13019988286487</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>112.9606863843777</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,19 +23943,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>53.32812537571792</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>110.0981677401998</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>57.92389425029189</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24147,7 +24147,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -24381,7 +24381,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>97.13705013256518</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -24414,7 +24414,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>71.98949189919222</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>44.00424462206516</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>104.4397302590399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25320,10 +25320,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>22.28896832823406</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
@@ -25362,16 +25362,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>37.4545493613748</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25557,10 +25557,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
@@ -25569,7 +25569,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0.6172179931341049</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>68.10191868181104</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>60.73402172351933</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>22.1301998828648</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>58.60684960120136</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>676293.9570017718</v>
+        <v>676293.957001772</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>676293.9570017719</v>
+        <v>676293.957001772</v>
       </c>
     </row>
     <row r="8">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>676293.9570017719</v>
+        <v>676293.957001772</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>676293.957001772</v>
+        <v>676293.9570017719</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>676293.957001772</v>
+        <v>676293.9570017719</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422270.9343080933</v>
+        <v>422270.9343080932</v>
       </c>
       <c r="C2" t="n">
         <v>422270.9343080931</v>
@@ -26322,40 +26322,40 @@
         <v>422270.9343080931</v>
       </c>
       <c r="E2" t="n">
+        <v>407472.0422746494</v>
+      </c>
+      <c r="F2" t="n">
+        <v>407472.0422746493</v>
+      </c>
+      <c r="G2" t="n">
         <v>407472.0422746491</v>
       </c>
-      <c r="F2" t="n">
-        <v>407472.042274649</v>
-      </c>
-      <c r="G2" t="n">
-        <v>407472.042274649</v>
-      </c>
       <c r="H2" t="n">
-        <v>407472.042274649</v>
+        <v>407472.0422746493</v>
       </c>
       <c r="I2" t="n">
-        <v>407472.042274649</v>
+        <v>407472.0422746491</v>
       </c>
       <c r="J2" t="n">
-        <v>407472.042274649</v>
+        <v>407472.0422746492</v>
       </c>
       <c r="K2" t="n">
         <v>407472.0422746491</v>
       </c>
       <c r="L2" t="n">
+        <v>407472.0422746491</v>
+      </c>
+      <c r="M2" t="n">
         <v>407472.042274649</v>
-      </c>
-      <c r="M2" t="n">
-        <v>407472.0422746489</v>
       </c>
       <c r="N2" t="n">
         <v>407472.0422746491</v>
       </c>
       <c r="O2" t="n">
-        <v>407472.0422746491</v>
+        <v>407472.042274649</v>
       </c>
       <c r="P2" t="n">
-        <v>407472.0422746493</v>
+        <v>407472.042274649</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695912</v>
+        <v>162124.6960695914</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361228</v>
+        <v>23406.83367361208</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802888</v>
+        <v>126577.2685802889</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701984</v>
+        <v>18646.60035701968</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211246.6236465253</v>
+        <v>211246.6236465251</v>
       </c>
       <c r="C4" t="n">
         <v>199866.3919893415</v>
@@ -26432,7 +26432,7 @@
         <v>101012.8540458319</v>
       </c>
       <c r="G4" t="n">
-        <v>101012.8540458318</v>
+        <v>101012.8540458319</v>
       </c>
       <c r="H4" t="n">
         <v>101012.8540458319</v>
@@ -26444,22 +26444,22 @@
         <v>101012.8540458319</v>
       </c>
       <c r="K4" t="n">
+        <v>101012.8540458318</v>
+      </c>
+      <c r="L4" t="n">
         <v>101012.8540458319</v>
       </c>
-      <c r="L4" t="n">
-        <v>101012.8540458318</v>
-      </c>
       <c r="M4" t="n">
-        <v>101012.8540458318</v>
+        <v>101012.8540458319</v>
       </c>
       <c r="N4" t="n">
         <v>101012.8540458319</v>
       </c>
       <c r="O4" t="n">
-        <v>101012.8540458319</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="P4" t="n">
-        <v>101012.8540458319</v>
+        <v>101012.8540458318</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216125</v>
+        <v>63041.22282216127</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26508,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14141.60823018436</v>
+        <v>-14141.60823018462</v>
       </c>
       <c r="C6" t="n">
-        <v>131551.4576077112</v>
+        <v>131551.4576077114</v>
       </c>
       <c r="D6" t="n">
         <v>154958.2912813235</v>
       </c>
       <c r="E6" t="n">
-        <v>12969.76948374703</v>
+        <v>12918.73882156296</v>
       </c>
       <c r="F6" t="n">
-        <v>228709.1260403875</v>
+        <v>228658.0953782034</v>
       </c>
       <c r="G6" t="n">
-        <v>228709.1260403874</v>
+        <v>228658.0953782033</v>
       </c>
       <c r="H6" t="n">
-        <v>228709.1260403875</v>
+        <v>228658.0953782034</v>
       </c>
       <c r="I6" t="n">
-        <v>228709.1260403875</v>
+        <v>228658.0953782033</v>
       </c>
       <c r="J6" t="n">
-        <v>102131.8574600987</v>
+        <v>102080.8267979144</v>
       </c>
       <c r="K6" t="n">
-        <v>210062.5256833677</v>
+        <v>210011.4950211836</v>
       </c>
       <c r="L6" t="n">
-        <v>228709.1260403875</v>
+        <v>228658.0953782032</v>
       </c>
       <c r="M6" t="n">
-        <v>48645.25458521969</v>
+        <v>48594.22392303545</v>
       </c>
       <c r="N6" t="n">
-        <v>228709.1260403876</v>
+        <v>228658.0953782033</v>
       </c>
       <c r="O6" t="n">
-        <v>228709.1260403876</v>
+        <v>228658.0953782032</v>
       </c>
       <c r="P6" t="n">
-        <v>228709.1260403877</v>
+        <v>228658.0953782032</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539684</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539684</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162631</v>
+        <v>72.45112196162569</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539684</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162631</v>
+        <v>72.45112196162569</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539684</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162631</v>
+        <v>72.45112196162569</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>179.2305980972478</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>288.91133524373</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>76.8928338402259</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>54.39893721573506</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>385.0527817684124</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>82.23069669041837</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -27824,22 +27824,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>60.11859830455629</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>59.37454630891006</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>160.190760259014</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>50.18120945273068</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
@@ -28013,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>146.6160721764771</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,16 +28061,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-5.621818412198717e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28274,7 +28274,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28572,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28766,7 +28766,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>3.205021433435225e-12</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -28863,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29000,7 +29000,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>483.7766911539684</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.304553167391532</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>368.5706731844566</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>483.7766911539678</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539684</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>483.7766911539678</v>
+        <v>285.2574796026346</v>
       </c>
       <c r="L3" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539684</v>
       </c>
       <c r="M3" t="n">
-        <v>483.7766911539678</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>101.1852207814489</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>483.7766911539684</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>483.7766911539684</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01063771759611215</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34871,7 +34871,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>359.0183117977405</v>
+        <v>72.14114201029368</v>
       </c>
       <c r="P4" t="n">
         <v>293.5345574968697</v>
@@ -34938,28 +34938,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>263.0232516395698</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N6" t="n">
-        <v>245.6677613624789</v>
-      </c>
-      <c r="O6" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35105,7 +35105,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404409</v>
       </c>
       <c r="O7" t="n">
         <v>359.0183117977405</v>
@@ -35114,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>415.010189472638</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155941</v>
+        <v>415.010189472638</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>238.1458997847902</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
@@ -35418,16 +35418,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>873.2124498233492</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>715.433615311038</v>
+        <v>86.80031487885682</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2513212958648</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>385.2564605346102</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K13" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937791</v>
       </c>
       <c r="L13" t="n">
         <v>358.2720417115361</v>
@@ -35655,10 +35655,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>333.1613907719469</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
@@ -35667,7 +35667,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>361.4796159561464</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>507.0757444178507</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35740,13 +35740,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>177.6936802674302</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35898,13 +35898,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>181.2265984013702</v>
+        <v>574.2156596605913</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35977,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>83.23994392538575</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36062,7 +36062,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391567</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36132,16 +36132,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>451.9051633799294</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36211,19 +36211,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36296,7 +36296,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P22" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968734</v>
       </c>
       <c r="Q22" t="n">
         <v>128.2829598391535</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36369,16 +36369,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>451.9051633799294</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36603,7 +36603,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,22 +36679,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>258.2738438980864</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>581.5177089712693</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37083,13 +37083,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
         <v>596.4494207761006</v>
@@ -37162,16 +37162,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>507.0757444178507</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37314,10 +37314,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N35" t="n">
-        <v>699.4275107890124</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37326,7 +37326,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>385.2564605346102</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37554,19 +37554,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>587.9026025434059</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,16 +37788,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>616.220827727605</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
@@ -38031,10 +38031,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>853.6814647988001</v>
+        <v>574.2156596605904</v>
       </c>
       <c r="P44" t="n">
-        <v>86.80031487885682</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
